--- a/biology/Microbiologie/Methylobacteriaceae/Methylobacteriaceae.xlsx
+++ b/biology/Microbiologie/Methylobacteriaceae/Methylobacteriaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Methylobacteriaceae forment une famille de bactéries de la classe des Alphaproteobacteria.
 </t>
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette famille est formée de bactéries chimioorganotrophes[1]. Elle a été initialement circonscrite sur la base des analyses phylogénétiques de la séquence de l'ARNr 16S[1]. De nombreuses bactéries de cette famille sont des méthylotrophes facultatives. Elles sont aussi nombreuses à être pigmentées rose et contiennent la quinone Q-10[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette famille est formée de bactéries chimioorganotrophes. Elle a été initialement circonscrite sur la base des analyses phylogénétiques de la séquence de l'ARNr 16S. De nombreuses bactéries de cette famille sont des méthylotrophes facultatives. Elles sont aussi nombreuses à être pigmentées rose et contiennent la quinone Q-10.
 </t>
         </is>
       </c>
@@ -542,17 +556,16 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon LPSN  (6 janvier 2024)[3], la famille des Methylobacteriaceae comprend les cinq genres validés suivants :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon LPSN  (6 janvier 2024), la famille des Methylobacteriaceae comprend les cinq genres validés suivants :
 Enterovirga Chen et al. 2017
 Methylobacterium Patt et al. 1976
 Methylorubrum Green &amp; Ardley 2018
 Microvirga Kanso &amp; Patel 2003
-Psychroglaciecola Qu et al. 2014
-Anciens genres
-Le genre Meganema avait été temporairement assigné à cette famille en 2006 sur la base de son profil d'acides gras. DEs analyses phylogénétiques ont montré qu'il n'appartenait pas à cette famille[2]. Ce genre a donc été assigné à une autre famille[4].
-</t>
+Psychroglaciecola Qu et al. 2014</t>
         </is>
       </c>
     </row>
@@ -577,15 +590,89 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Liste des genres</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Anciens genres</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre Meganema avait été temporairement assigné à cette famille en 2006 sur la base de son profil d'acides gras. DEs analyses phylogénétiques ont montré qu'il n'appartenait pas à cette famille. Ce genre a donc été assigné à une autre famille.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Methylobacteriaceae</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Microbiologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Methylobacteriaceae</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom correct complet (avec auteur) de ce taxon est Methylobacteriaceae Garrity et al. 2006[3].
-Le genre type est : Methylobacterium Patt et al. 1976[3].
-Étymologie
-L'étymologie du nom de cette famille est liée à celle de son genre type et est la suivante : N.L. neut. n. Methylobacterium, genre type de la famille; L. fem. pl. n. suff. -aceae, suffixe pour définir une famille; N.L. fem. pl. n. Methylobacteriaceae, la famille des Methylobacterium[3].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom correct complet (avec auteur) de ce taxon est Methylobacteriaceae Garrity et al. 2006.
+Le genre type est : Methylobacterium Patt et al. 1976.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Methylobacteriaceae</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Microbiologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Methylobacteriaceae</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Étymologie</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'étymologie du nom de cette famille est liée à celle de son genre type et est la suivante : N.L. neut. n. Methylobacterium, genre type de la famille; L. fem. pl. n. suff. -aceae, suffixe pour définir une famille; N.L. fem. pl. n. Methylobacteriaceae, la famille des Methylobacterium.
 </t>
         </is>
       </c>
